--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4711246200607903</v>
+        <v>0.4802431610942249</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09983946957372845</v>
+        <v>0.08385563035795779</v>
       </c>
       <c r="J2" t="n">
-        <v>1301.305665662177</v>
+        <v>1113.160232763377</v>
       </c>
       <c r="K2" t="n">
-        <v>2170723.378169558</v>
+        <v>1685028.52492739</v>
       </c>
       <c r="L2" t="n">
-        <v>1473.337496356336</v>
+        <v>1298.086485919713</v>
       </c>
       <c r="M2" t="n">
-        <v>0.591856477218522</v>
+        <v>0.6831777438491186</v>
       </c>
     </row>
   </sheetData>
